--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H2">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.324435</v>
+        <v>10.823698</v>
       </c>
       <c r="N2">
-        <v>117.973305</v>
+        <v>32.471094</v>
       </c>
       <c r="O2">
-        <v>0.6061145373950505</v>
+        <v>0.3079767696785641</v>
       </c>
       <c r="P2">
-        <v>0.6061145373950504</v>
+        <v>0.3079767696785641</v>
       </c>
       <c r="Q2">
-        <v>8.084278022865</v>
+        <v>3.469229722456666</v>
       </c>
       <c r="R2">
-        <v>72.75850220578499</v>
+        <v>31.22306750211</v>
       </c>
       <c r="S2">
-        <v>0.05572891920434379</v>
+        <v>0.0417445447269959</v>
       </c>
       <c r="T2">
-        <v>0.05572891920434378</v>
+        <v>0.04174454472699589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H3">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.317595</v>
       </c>
       <c r="O3">
-        <v>0.2893443821093832</v>
+        <v>0.5341523443640567</v>
       </c>
       <c r="P3">
-        <v>0.2893443821093832</v>
+        <v>0.5341523443640566</v>
       </c>
       <c r="Q3">
-        <v>3.859238287501666</v>
+        <v>6.017003137352777</v>
       </c>
       <c r="R3">
-        <v>34.733144587515</v>
+        <v>54.153028236175</v>
       </c>
       <c r="S3">
-        <v>0.02660363462342566</v>
+        <v>0.07240139070751175</v>
       </c>
       <c r="T3">
-        <v>0.02660363462342566</v>
+        <v>0.07240139070751174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H4">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I4">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J4">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.782577666666666</v>
+        <v>5.548297666666667</v>
       </c>
       <c r="N4">
-        <v>20.347733</v>
+        <v>16.644893</v>
       </c>
       <c r="O4">
-        <v>0.1045410804955664</v>
+        <v>0.1578708859573793</v>
       </c>
       <c r="P4">
-        <v>0.1045410804955664</v>
+        <v>0.1578708859573793</v>
       </c>
       <c r="Q4">
-        <v>1.394355534135666</v>
+        <v>1.778349615282778</v>
       </c>
       <c r="R4">
-        <v>12.549199807221</v>
+        <v>16.005146537545</v>
       </c>
       <c r="S4">
-        <v>0.009611981018490239</v>
+        <v>0.02139852387833194</v>
       </c>
       <c r="T4">
-        <v>0.009611981018490239</v>
+        <v>0.02139852387833193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.287105</v>
       </c>
       <c r="I5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.324435</v>
+        <v>10.823698</v>
       </c>
       <c r="N5">
-        <v>117.973305</v>
+        <v>32.471094</v>
       </c>
       <c r="O5">
-        <v>0.6061145373950505</v>
+        <v>0.3079767696785641</v>
       </c>
       <c r="P5">
-        <v>0.6061145373950504</v>
+        <v>0.3079767696785641</v>
       </c>
       <c r="Q5">
-        <v>43.087848970225</v>
+        <v>11.85954393809667</v>
       </c>
       <c r="R5">
-        <v>387.790640732025</v>
+        <v>106.73589544287</v>
       </c>
       <c r="S5">
-        <v>0.2970258132091872</v>
+        <v>0.1427035111457175</v>
       </c>
       <c r="T5">
-        <v>0.2970258132091871</v>
+        <v>0.1427035111457175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.287105</v>
       </c>
       <c r="I6">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J6">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.317595</v>
       </c>
       <c r="O6">
-        <v>0.2893443821093832</v>
+        <v>0.5341523443640567</v>
       </c>
       <c r="P6">
-        <v>0.2893443821093832</v>
+        <v>0.5341523443640566</v>
       </c>
       <c r="Q6">
         <v>20.56909423471944</v>
@@ -818,10 +818,10 @@
         <v>185.121848112475</v>
       </c>
       <c r="S6">
-        <v>0.1417929204650209</v>
+        <v>0.247503781233318</v>
       </c>
       <c r="T6">
-        <v>0.1417929204650209</v>
+        <v>0.2475037812333179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.287105</v>
       </c>
       <c r="I7">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J7">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.782577666666666</v>
+        <v>5.548297666666667</v>
       </c>
       <c r="N7">
-        <v>20.347733</v>
+        <v>16.644893</v>
       </c>
       <c r="O7">
-        <v>0.1045410804955664</v>
+        <v>0.1578708859573793</v>
       </c>
       <c r="P7">
-        <v>0.1045410804955664</v>
+        <v>0.1578708859573793</v>
       </c>
       <c r="Q7">
-        <v>7.431681653662777</v>
+        <v>6.079279000529444</v>
       </c>
       <c r="R7">
-        <v>66.88513488296499</v>
+        <v>54.713511004765</v>
       </c>
       <c r="S7">
-        <v>0.05123025027813211</v>
+        <v>0.07315074366588251</v>
       </c>
       <c r="T7">
-        <v>0.05123025027813211</v>
+        <v>0.07315074366588249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H8">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I8">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J8">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.324435</v>
+        <v>10.823698</v>
       </c>
       <c r="N8">
-        <v>117.973305</v>
+        <v>32.471094</v>
       </c>
       <c r="O8">
-        <v>0.6061145373950505</v>
+        <v>0.3079767696785641</v>
       </c>
       <c r="P8">
-        <v>0.6061145373950504</v>
+        <v>0.3079767696785641</v>
       </c>
       <c r="Q8">
-        <v>36.753468980425</v>
+        <v>10.26599974475134</v>
       </c>
       <c r="R8">
-        <v>330.781220823825</v>
+        <v>92.39399770276201</v>
       </c>
       <c r="S8">
-        <v>0.2533598049815196</v>
+        <v>0.1235287138058508</v>
       </c>
       <c r="T8">
-        <v>0.2533598049815194</v>
+        <v>0.1235287138058507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H9">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I9">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J9">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>56.317595</v>
       </c>
       <c r="O9">
-        <v>0.2893443821093832</v>
+        <v>0.5341523443640567</v>
       </c>
       <c r="P9">
-        <v>0.2893443821093832</v>
+        <v>0.5341523443640566</v>
       </c>
       <c r="Q9">
-        <v>17.54521483385278</v>
+        <v>17.80526445752056</v>
       </c>
       <c r="R9">
-        <v>157.906933504675</v>
+        <v>160.247380117685</v>
       </c>
       <c r="S9">
-        <v>0.1209478270209366</v>
+        <v>0.214247172423227</v>
       </c>
       <c r="T9">
-        <v>0.1209478270209366</v>
+        <v>0.2142471724232269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H10">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I10">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J10">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.782577666666666</v>
+        <v>5.548297666666667</v>
       </c>
       <c r="N10">
-        <v>20.347733</v>
+        <v>16.644893</v>
       </c>
       <c r="O10">
-        <v>0.1045410804955664</v>
+        <v>0.1578708859573793</v>
       </c>
       <c r="P10">
-        <v>0.1045410804955664</v>
+        <v>0.1578708859573793</v>
       </c>
       <c r="Q10">
-        <v>6.339144043116111</v>
+        <v>5.262417930526556</v>
       </c>
       <c r="R10">
-        <v>57.05229638804499</v>
+        <v>47.361761374739</v>
       </c>
       <c r="S10">
-        <v>0.04369884919894402</v>
+        <v>0.0633216184131649</v>
       </c>
       <c r="T10">
-        <v>0.04369884919894401</v>
+        <v>0.06332161841316489</v>
       </c>
     </row>
   </sheetData>
